--- a/file/template3S1.xlsx
+++ b/file/template3S1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Can信号(CanAction)" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7154" uniqueCount="2765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7170" uniqueCount="2806">
   <si>
     <t>Id
 序号</t>
@@ -11022,7 +11022,168 @@
 screenshotaction=Ai_HiBeam_BlueLight_OFF2</t>
   </si>
   <si>
+    <t>com.chinatsp.settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.SettingsActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_page_car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页菜单栏车辆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页菜单栏主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+  </si>
+  <si>
+    <t>点击进去主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击进入车辆设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_page_car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_main_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆设置的行驶数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text=行驶数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId=com.chinatsp.media:id/play_content_sub_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_card_page_fm_show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页中第二个卡片的FM频点的显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在</t>
+  </si>
+  <si>
+    <t>主页的fm存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_card_page_fm_show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_car_setting_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入车辆设置界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainpage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_page_fm_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>对比是否存在形式数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_date_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elementaction=enter_main_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入车辆设置界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elementaction=enter_car_setting_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形式数据存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>informationcompare=driver_date_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_driver_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查行驶数据是否正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_driver_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_page_main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_page_main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId=com.android.systemui:id/tsp_nav_button_content,text=车辆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId=com.android.systemui:id/tsp_nav_button_content,text=主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>uiautomator2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11127,7 +11288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11191,6 +11352,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16368,15 +16532,16 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="31.25" customWidth="1"/>
-    <col min="3" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16400,24 +16565,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2789</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2788</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>2774</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>2798</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -16602,35 +16767,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" sqref="F2">
-      <formula1>"CHECKABLE,CHECKED,CLICKABLE,ENABLED,FOCUSABLE,FOCUSED,SCROLLABLE,LONG_CLICKABLE,DISPLAYED,SELECTED,TEXT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F3">
-      <formula1>"CHECKABLE,CHECKED,CLICKABLE,ENABLED,FOCUSABLE,FOCUSED,SCROLLABLE,LONG_CLICKABLE,DISPLAYED,SELECTED,TEXT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F4">
-      <formula1>"CHECKABLE,CHECKED,CLICKABLE,ENABLED,FOCUSABLE,FOCUSED,SCROLLABLE,LONG_CLICKABLE,DISPLAYED,SELECTED,TEXT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F5">
-      <formula1>"CHECKABLE,CHECKED,CLICKABLE,ENABLED,FOCUSABLE,FOCUSED,SCROLLABLE,LONG_CLICKABLE,DISPLAYED,SELECTED,TEXT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F6">
-      <formula1>"CHECKABLE,CHECKED,CLICKABLE,ENABLED,FOCUSABLE,FOCUSED,SCROLLABLE,LONG_CLICKABLE,DISPLAYED,SELECTED,TEXT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F7">
-      <formula1>"CHECKABLE,CHECKED,CLICKABLE,ENABLED,FOCUSABLE,FOCUSED,SCROLLABLE,LONG_CLICKABLE,DISPLAYED,SELECTED,TEXT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F8">
-      <formula1>"CHECKABLE,CHECKED,CLICKABLE,ENABLED,FOCUSABLE,FOCUSED,SCROLLABLE,LONG_CLICKABLE,DISPLAYED,SELECTED,TEXT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F9">
-      <formula1>"CHECKABLE,CHECKED,CLICKABLE,ENABLED,FOCUSABLE,FOCUSED,SCROLLABLE,LONG_CLICKABLE,DISPLAYED,SELECTED,TEXT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F10">
-      <formula1>"CHECKABLE,CHECKED,CLICKABLE,ENABLED,FOCUSABLE,FOCUSED,SCROLLABLE,LONG_CLICKABLE,DISPLAYED,SELECTED,TEXT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F11">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F11">
       <formula1>"CHECKABLE,CHECKED,CLICKABLE,ENABLED,FOCUSABLE,FOCUSED,SCROLLABLE,LONG_CLICKABLE,DISPLAYED,SELECTED,TEXT"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16642,7 +16780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16669,21 +16809,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2796</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2797</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>2774</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -16879,10 +17019,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M231"/>
+  <dimension ref="A1:M232"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F232" sqref="F232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16932,7 +17072,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -16973,7 +17113,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -17014,7 +17154,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -17055,7 +17195,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -17096,7 +17236,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -17137,7 +17277,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -17178,7 +17318,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -17219,7 +17359,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -17260,7 +17400,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -17301,7 +17441,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -17342,7 +17482,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -17383,7 +17523,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -17424,7 +17564,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -17465,7 +17605,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -17506,7 +17646,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -17547,7 +17687,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -17588,7 +17728,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -17629,7 +17769,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -17670,7 +17810,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -17711,7 +17851,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -17752,7 +17892,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -17793,7 +17933,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -17834,7 +17974,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -17875,7 +18015,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -17916,7 +18056,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -17957,7 +18097,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -17998,7 +18138,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -18039,7 +18179,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -18080,7 +18220,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -18121,7 +18261,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -18162,7 +18302,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -18203,7 +18343,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -18244,7 +18384,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -18285,7 +18425,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -18326,7 +18466,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -18367,7 +18507,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -18408,7 +18548,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -18449,7 +18589,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -18490,7 +18630,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -18531,7 +18671,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -18572,7 +18712,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -18613,7 +18753,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -18654,7 +18794,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -18695,7 +18835,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -18736,7 +18876,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -18777,7 +18917,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -18818,7 +18958,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -18859,7 +18999,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -18900,7 +19040,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -18941,7 +19081,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -18982,7 +19122,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -19023,7 +19163,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -19064,7 +19204,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -19105,7 +19245,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -19146,7 +19286,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -19187,7 +19327,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -19228,7 +19368,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -19269,7 +19409,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -19310,7 +19450,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -19351,7 +19491,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="99.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -19392,7 +19532,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="99.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -19433,7 +19573,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -19474,7 +19614,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -19515,7 +19655,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -19556,7 +19696,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -19597,7 +19737,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -19638,7 +19778,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -19679,7 +19819,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -19720,7 +19860,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -19761,7 +19901,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -19802,7 +19942,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -19843,7 +19983,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -19884,7 +20024,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -19925,7 +20065,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -19966,7 +20106,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -20007,7 +20147,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -20048,7 +20188,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -20089,7 +20229,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -20130,7 +20270,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -20171,7 +20311,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -20212,7 +20352,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -20253,7 +20393,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -20294,7 +20434,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -20335,7 +20475,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -20376,7 +20516,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -20417,7 +20557,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -20458,7 +20598,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -20499,7 +20639,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -20540,7 +20680,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -20581,7 +20721,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -20622,7 +20762,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -20663,7 +20803,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -20704,7 +20844,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -20745,7 +20885,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -20786,7 +20926,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -20827,7 +20967,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -20868,7 +21008,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -20909,7 +21049,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -20950,7 +21090,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -20991,7 +21131,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -21032,7 +21172,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="85.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -21073,7 +21213,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="270.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -21114,7 +21254,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="270.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -21155,7 +21295,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="270.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -21196,7 +21336,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="270.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -21237,7 +21377,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="270.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -21278,7 +21418,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -21319,7 +21459,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -21360,7 +21500,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -21401,7 +21541,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -21442,7 +21582,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -21483,7 +21623,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -21524,7 +21664,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -21565,7 +21705,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -21606,7 +21746,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -21647,7 +21787,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -21688,7 +21828,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -21729,7 +21869,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -21770,7 +21910,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -21811,7 +21951,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -21852,7 +21992,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -21893,7 +22033,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -21934,7 +22074,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -21975,7 +22115,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -22016,7 +22156,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -22057,7 +22197,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -22098,7 +22238,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -22139,7 +22279,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -22180,7 +22320,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -22221,7 +22361,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -22262,7 +22402,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -22303,7 +22443,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -22344,7 +22484,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -22385,7 +22525,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -22426,7 +22566,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -22467,7 +22607,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -22508,7 +22648,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -22549,7 +22689,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -22590,7 +22730,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -22631,7 +22771,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -22672,7 +22812,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -22713,7 +22853,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -22754,7 +22894,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -22795,7 +22935,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -22836,7 +22976,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -22877,7 +23017,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -22918,7 +23058,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -22959,7 +23099,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -23000,7 +23140,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -23041,7 +23181,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -23082,7 +23222,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" ht="85.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -23123,7 +23263,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" ht="85.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -23164,7 +23304,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -23205,7 +23345,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -23246,7 +23386,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -23287,7 +23427,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -23328,7 +23468,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -23369,7 +23509,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -23410,7 +23550,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -23451,7 +23591,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -23492,7 +23632,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -23533,7 +23673,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -23574,7 +23714,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -23615,7 +23755,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -23656,7 +23796,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -23697,7 +23837,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="128.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -23738,7 +23878,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" ht="128.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -23779,7 +23919,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" ht="128.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -23820,7 +23960,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="128.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -23861,7 +24001,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" ht="128.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -23902,7 +24042,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" ht="128.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -23943,7 +24083,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -23984,7 +24124,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -24025,7 +24165,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -24066,7 +24206,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -24107,7 +24247,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -24148,7 +24288,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -24189,7 +24329,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -24230,7 +24370,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -24271,7 +24411,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -24312,7 +24452,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -24353,7 +24493,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -24394,7 +24534,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -24435,7 +24575,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -24476,7 +24616,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -24517,7 +24657,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -24558,7 +24698,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -24599,7 +24739,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -24640,7 +24780,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -24681,7 +24821,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -24722,7 +24862,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -24763,7 +24903,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -24804,7 +24944,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -24845,7 +24985,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -24886,7 +25026,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -24927,7 +25067,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -24968,7 +25108,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -25009,7 +25149,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -25050,7 +25190,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -25091,7 +25231,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -25132,7 +25272,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -25173,7 +25313,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -25214,7 +25354,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -25255,7 +25395,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -25296,7 +25436,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -25337,7 +25477,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -25378,7 +25518,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -25419,7 +25559,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -25460,7 +25600,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -25501,7 +25641,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -25542,7 +25682,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -25583,7 +25723,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -25624,7 +25764,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -25665,7 +25805,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -25706,7 +25846,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -25747,7 +25887,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -25788,7 +25928,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -25829,7 +25969,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -25870,7 +26010,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -25911,7 +26051,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -25952,7 +26092,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -25993,7 +26133,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -26034,7 +26174,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -26075,7 +26215,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -26116,7 +26256,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -26157,7 +26297,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -26198,7 +26338,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -26239,7 +26379,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -26280,7 +26420,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -26321,7 +26461,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -26362,9 +26502,47 @@
         <v>966</v>
       </c>
     </row>
+    <row r="232" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A232" s="22">
+        <v>240</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>2783</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>2784</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>2784</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F232" s="7" t="s">
+        <v>2785</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>2790</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>2791</v>
+      </c>
+      <c r="I232" s="4" t="s">
+        <v>2792</v>
+      </c>
+      <c r="J232" s="3" t="s">
+        <v>2793</v>
+      </c>
+      <c r="K232" s="4" t="s">
+        <v>2794</v>
+      </c>
+      <c r="L232" s="4" t="s">
+        <v>2795</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L219:L231 L59:L101 L110:L126 L167:L208 L210 L212:L217 L103:L108">
+  <conditionalFormatting sqref="L59:L101 L110:L126 L167:L208 L210 L212:L217 L103:L108 L219:L232">
     <cfRule type="duplicateValues" dxfId="56" priority="81"/>
     <cfRule type="duplicateValues" dxfId="55" priority="82"/>
   </conditionalFormatting>
@@ -26420,7 +26598,7 @@
     <cfRule type="duplicateValues" dxfId="30" priority="87"/>
     <cfRule type="duplicateValues" dxfId="29" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B219:B231 B167:B208 B59:B101 B110:B126 B210 B212:B217 B103:B108">
+  <conditionalFormatting sqref="B167:B208 B59:B101 B110:B126 B210 B212:B217 B103:B108 B219:B232">
     <cfRule type="duplicateValues" dxfId="28" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
@@ -26505,7 +26683,7 @@
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E2:E231">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E232">
       <formula1>"半自动,全自动"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26515,10 +26693,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26793,6 +26971,35 @@
         <v>2442</v>
       </c>
     </row>
+    <row r="10" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C10" s="22">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>2439</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>2443</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>2805</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B9">
@@ -26806,8 +27013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27163,7 +27370,7 @@
         <v>101</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>2764</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -27176,7 +27383,9 @@
       <c r="C26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>2764</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -27189,7 +27398,7 @@
         <v>105</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>3</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -27258,13 +27467,12 @@
       <c r="C32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27273,16 +27481,16 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="31.25" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27311,16 +27519,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2773</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2770</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>2769</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>2800</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -27331,16 +27539,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2783</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2771</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>2769</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>2766</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>3</v>
@@ -27508,35 +27716,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" sqref="D2">
-      <formula1>"滑动,点击,长按,双击,上滑,下滑,左滑,右滑,上滑到顶,下滑到底,左滑到头,右滑到头"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D3">
-      <formula1>"滑动,点击,长按,双击,上滑,下滑,左滑,右滑,上滑到顶,下滑到底,左滑到头,右滑到头"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D4">
-      <formula1>"滑动,点击,长按,双击,上滑,下滑,左滑,右滑,上滑到顶,下滑到底,左滑到头,右滑到头"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D5">
-      <formula1>"滑动,点击,长按,双击,上滑,下滑,左滑,右滑,上滑到顶,下滑到底,左滑到头,右滑到头"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D6">
-      <formula1>"滑动,点击,长按,双击,上滑,下滑,左滑,右滑,上滑到顶,下滑到底,左滑到头,右滑到头"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D7">
-      <formula1>"滑动,点击,长按,双击,上滑,下滑,左滑,右滑,上滑到顶,下滑到底,左滑到头,右滑到头"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D8">
-      <formula1>"滑动,点击,长按,双击,上滑,下滑,左滑,右滑,上滑到顶,下滑到底,左滑到头,右滑到头"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D9">
-      <formula1>"滑动,点击,长按,双击,上滑,下滑,左滑,右滑,上滑到顶,下滑到底,左滑到头,右滑到头"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D10">
-      <formula1>"滑动,点击,长按,双击,上滑,下滑,左滑,右滑,上滑到顶,下滑到底,左滑到头,右滑到头"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D11">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D11">
       <formula1>"滑动,点击,长按,双击,上滑,下滑,左滑,右滑,上滑到顶,下滑到底,左滑到头,右滑到头"</formula1>
     </dataValidation>
   </dataValidations>
@@ -27548,7 +27729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -27921,7 +28104,7 @@
   <dimension ref="A1:G231"/>
   <sheetViews>
     <sheetView topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B231"/>
+      <selection activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33390,14 +33573,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="31.25" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="3" max="3" width="51.25" customWidth="1"/>
+    <col min="4" max="4" width="59.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -33419,13 +33604,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2772</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2767</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -33433,13 +33618,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2799</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2768</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -33447,13 +33632,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2774</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>2775</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -33461,13 +33646,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2778</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>2779</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -33557,6 +33742,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -34035,15 +34221,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="31.25" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -34067,23 +34255,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2786</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2781</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>2780</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="F2" s="1">
         <v>3</v>
       </c>
     </row>
@@ -34097,9 +34285,7 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>

--- a/file/template3S1.xlsx
+++ b/file/template3S1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Can信号(CanAction)" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7170" uniqueCount="2806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7180" uniqueCount="2819">
   <si>
     <t>Id
 序号</t>
@@ -11135,55 +11135,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>形式数据存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>informationcompare=driver_date_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_driver_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查行驶数据是否正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_driver_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_page_main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_page_main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId=com.android.systemui:id/tsp_nav_button_content,text=车辆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId=com.android.systemui:id/tsp_nav_button_content,text=主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiautomator2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右滑动查找元素并点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆设置中滑动查找DVR这个元素并点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_dvr_button_and_click_it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elementaction=enter_car_setting_page
+common=click_dvr_button_and_click_it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时影像菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_video_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_video_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时影像item存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_video_item_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_car_setting_page_check_dvr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>elementaction=enter_car_setting_page</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>形式数据存在</t>
+    <t>elementcompare=real_video_item_exist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>informationcompare=driver_date_exist</t>
+    <t>resourceId=com.chinatsp.vehicle:id/btn_real_video</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>check_driver_exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查行驶数据是否正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check_driver_exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main_page_main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main_page_main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourceId=com.android.systemui:id/tsp_nav_button_content,text=车辆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourceId=com.android.systemui:id/tsp_nav_button_content,text=主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uiautomator2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭设备</t>
+    <t>element={"resourceId":"com.chinatsp.vehicle:id/navigation_view"}
+locator={"resourceId": "android:id/navigation_item_text"}
+text=DVR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11360,7 +11415,37 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="209">
+  <dxfs count="212">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -16362,166 +16447,166 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D165 D2:D16 D52:D55 D66:D76 D90:D96 D105:D114 D155:D157 D163 D179:D180 D116:D152 D182:D183">
-    <cfRule type="duplicateValues" dxfId="208" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D164">
-    <cfRule type="duplicateValues" dxfId="207" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="duplicateValues" dxfId="206" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="duplicateValues" dxfId="205" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D20">
-    <cfRule type="duplicateValues" dxfId="204" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D28">
-    <cfRule type="duplicateValues" dxfId="203" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D42">
-    <cfRule type="duplicateValues" dxfId="202" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D51">
-    <cfRule type="duplicateValues" dxfId="201" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D84">
-    <cfRule type="duplicateValues" dxfId="200" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85:D88">
-    <cfRule type="duplicateValues" dxfId="199" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="duplicateValues" dxfId="198" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D174:D178">
-    <cfRule type="duplicateValues" dxfId="197" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D153:D154">
-    <cfRule type="duplicateValues" dxfId="196" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D158:D159">
-    <cfRule type="duplicateValues" dxfId="195" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D160">
-    <cfRule type="duplicateValues" dxfId="194" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161">
-    <cfRule type="duplicateValues" dxfId="193" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162">
-    <cfRule type="duplicateValues" dxfId="192" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D166:D168">
-    <cfRule type="duplicateValues" dxfId="191" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169:D171">
-    <cfRule type="duplicateValues" dxfId="190" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D172:D173">
-    <cfRule type="duplicateValues" dxfId="189" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D24">
-    <cfRule type="duplicateValues" dxfId="188" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D181">
-    <cfRule type="duplicateValues" dxfId="187" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D184">
-    <cfRule type="duplicateValues" dxfId="186" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D185">
-    <cfRule type="duplicateValues" dxfId="185" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D186">
-    <cfRule type="duplicateValues" dxfId="184" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D187">
-    <cfRule type="duplicateValues" dxfId="183" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B183 B2:B8 B54:B55 B66:B76">
-    <cfRule type="duplicateValues" dxfId="182" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B28">
-    <cfRule type="duplicateValues" dxfId="181" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B42">
-    <cfRule type="duplicateValues" dxfId="180" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B51">
-    <cfRule type="duplicateValues" dxfId="179" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77:B84">
-    <cfRule type="duplicateValues" dxfId="178" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B88">
-    <cfRule type="duplicateValues" dxfId="177" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="duplicateValues" dxfId="176" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B180 B182:B183">
-    <cfRule type="duplicateValues" dxfId="175" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181">
-    <cfRule type="duplicateValues" dxfId="174" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184">
-    <cfRule type="duplicateValues" dxfId="173" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184">
-    <cfRule type="duplicateValues" dxfId="172" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B185">
-    <cfRule type="duplicateValues" dxfId="171" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186">
-    <cfRule type="duplicateValues" dxfId="170" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B187">
-    <cfRule type="duplicateValues" dxfId="169" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C182:C183 C2:C8 C54:C55 C66:C76">
-    <cfRule type="duplicateValues" dxfId="168" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C28">
-    <cfRule type="duplicateValues" dxfId="167" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C42">
-    <cfRule type="duplicateValues" dxfId="166" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C51">
-    <cfRule type="duplicateValues" dxfId="165" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C84">
-    <cfRule type="duplicateValues" dxfId="164" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85:C88">
-    <cfRule type="duplicateValues" dxfId="163" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89">
-    <cfRule type="duplicateValues" dxfId="162" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C180 C182:C183">
-    <cfRule type="duplicateValues" dxfId="161" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C181">
-    <cfRule type="duplicateValues" dxfId="160" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C184">
-    <cfRule type="duplicateValues" dxfId="159" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C184">
-    <cfRule type="duplicateValues" dxfId="158" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C185">
-    <cfRule type="duplicateValues" dxfId="157" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C186">
-    <cfRule type="duplicateValues" dxfId="156" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="duplicateValues" dxfId="155" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16532,7 +16617,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16579,7 +16664,7 @@
         <v>2774</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2787</v>
@@ -16781,7 +16866,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16814,10 +16899,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2796</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2797</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2774</v>
@@ -16830,9 +16915,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
@@ -17019,10 +17102,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M232"/>
+  <dimension ref="A1:M233"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F232" sqref="F232"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L234" sqref="L234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26531,159 +26614,204 @@
         <v>2792</v>
       </c>
       <c r="J232" s="3" t="s">
+        <v>2815</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>2793</v>
       </c>
-      <c r="K232" s="4" t="s">
+      <c r="L232" s="4" t="s">
         <v>2794</v>
       </c>
-      <c r="L232" s="4" t="s">
-        <v>2795</v>
+    </row>
+    <row r="233" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A233" s="22">
+        <v>242</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>2784</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>2784</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F233" s="7" t="s">
+        <v>2785</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>2790</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>2791</v>
+      </c>
+      <c r="I233" s="4" t="s">
+        <v>2784</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>2808</v>
+      </c>
+      <c r="K233" s="4" t="s">
+        <v>2793</v>
+      </c>
+      <c r="L233" s="4" t="s">
+        <v>2816</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L59:L101 L110:L126 L167:L208 L210 L212:L217 L103:L108 L219:L232">
-    <cfRule type="duplicateValues" dxfId="56" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L109">
-    <cfRule type="duplicateValues" dxfId="54" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L159">
-    <cfRule type="duplicateValues" dxfId="52" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L160:L166 L127:L134 L136:L139 L146 L149:L158">
-    <cfRule type="duplicateValues" dxfId="50" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L135">
-    <cfRule type="duplicateValues" dxfId="48" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L218">
-    <cfRule type="duplicateValues" dxfId="46" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L209">
-    <cfRule type="duplicateValues" dxfId="44" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L211">
-    <cfRule type="duplicateValues" dxfId="42" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L102">
-    <cfRule type="duplicateValues" dxfId="40" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L140:L142">
-    <cfRule type="duplicateValues" dxfId="38" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L143:L145">
-    <cfRule type="duplicateValues" dxfId="36" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L147">
-    <cfRule type="duplicateValues" dxfId="34" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L148">
-    <cfRule type="duplicateValues" dxfId="32" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L58">
-    <cfRule type="duplicateValues" dxfId="30" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167:B208 B59:B101 B110:B126 B210 B212:B217 B103:B108 B219:B232">
-    <cfRule type="duplicateValues" dxfId="28" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="duplicateValues" dxfId="27" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="duplicateValues" dxfId="26" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B166 B127:B134 B146 B136:B139 B149:B158">
-    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B58">
-    <cfRule type="duplicateValues" dxfId="24" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
+    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B218">
+    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B209">
+    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B211">
     <cfRule type="duplicateValues" dxfId="23" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B218">
+  <conditionalFormatting sqref="B102">
     <cfRule type="duplicateValues" dxfId="22" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B209">
+  <conditionalFormatting sqref="B140:B142">
     <cfRule type="duplicateValues" dxfId="21" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B211">
+  <conditionalFormatting sqref="B143:B145">
     <cfRule type="duplicateValues" dxfId="20" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B102">
+  <conditionalFormatting sqref="B147">
     <cfRule type="duplicateValues" dxfId="19" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B140:B142">
+  <conditionalFormatting sqref="B148">
     <cfRule type="duplicateValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B143:B145">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B147">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M219:M231 M167:M208 M59:M101 M110:M126 M210 M212:M217 M103:M108">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M109">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M159">
-    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M160:M166 M127:M134 M146 M136:M139 M149:M158">
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M58">
-    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M135">
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M218">
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M209">
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M211">
     <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M218">
+  <conditionalFormatting sqref="M102">
     <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M209">
+  <conditionalFormatting sqref="M140:M142">
     <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M211">
+  <conditionalFormatting sqref="M143:M145">
     <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M102">
+  <conditionalFormatting sqref="M147">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M140:M142">
+  <conditionalFormatting sqref="M148">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M143:M145">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  <conditionalFormatting sqref="L233">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M147">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M148">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="B233">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E2:E232">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E233">
       <formula1>"半自动,全自动"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26695,8 +26823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26994,16 +27122,16 @@
         <v>2443</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>2804</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>2805</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B9">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27370,7 +27498,7 @@
         <v>101</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -27528,7 +27656,7 @@
         <v>2769</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -33434,130 +33562,130 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G219:G231 G167:G208 G59:G101 G110:G126 G210 G212:G217 G103:G108">
-    <cfRule type="duplicateValues" dxfId="154" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G109">
-    <cfRule type="duplicateValues" dxfId="153" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G159">
-    <cfRule type="duplicateValues" dxfId="152" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G160:G166 G127:G134 G146 G136:G139 G149:G158">
-    <cfRule type="duplicateValues" dxfId="151" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G58">
-    <cfRule type="duplicateValues" dxfId="150" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G135">
-    <cfRule type="duplicateValues" dxfId="149" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G218">
-    <cfRule type="duplicateValues" dxfId="148" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G209">
-    <cfRule type="duplicateValues" dxfId="147" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G211">
-    <cfRule type="duplicateValues" dxfId="146" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102">
-    <cfRule type="duplicateValues" dxfId="145" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G142">
-    <cfRule type="duplicateValues" dxfId="144" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G143:G145">
-    <cfRule type="duplicateValues" dxfId="143" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G147">
-    <cfRule type="duplicateValues" dxfId="142" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148">
-    <cfRule type="duplicateValues" dxfId="141" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B219:B231 B167:B208 B59:B101 B110:B126 B210 B212:B217 B103:B108">
-    <cfRule type="duplicateValues" dxfId="140" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="duplicateValues" dxfId="139" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="duplicateValues" dxfId="138" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B166 B127:B134 B146 B136:B139 B149:B158">
-    <cfRule type="duplicateValues" dxfId="137" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B58">
-    <cfRule type="duplicateValues" dxfId="136" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="duplicateValues" dxfId="135" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B218">
-    <cfRule type="duplicateValues" dxfId="134" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209">
-    <cfRule type="duplicateValues" dxfId="133" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211">
-    <cfRule type="duplicateValues" dxfId="132" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="131" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B142">
-    <cfRule type="duplicateValues" dxfId="130" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B145">
-    <cfRule type="duplicateValues" dxfId="129" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B147">
-    <cfRule type="duplicateValues" dxfId="128" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="duplicateValues" dxfId="127" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C219:C231 C167:C208 C59:C101 C110:C126 C210 C212:C217 C103:C108">
-    <cfRule type="duplicateValues" dxfId="126" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C109">
-    <cfRule type="duplicateValues" dxfId="125" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159">
-    <cfRule type="duplicateValues" dxfId="124" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160:C166 C127:C134 C146 C136:C139 C149:C158">
-    <cfRule type="duplicateValues" dxfId="123" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C58">
-    <cfRule type="duplicateValues" dxfId="122" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="duplicateValues" dxfId="121" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C218">
-    <cfRule type="duplicateValues" dxfId="120" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C209">
-    <cfRule type="duplicateValues" dxfId="119" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C211">
-    <cfRule type="duplicateValues" dxfId="118" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="duplicateValues" dxfId="117" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C140:C142">
-    <cfRule type="duplicateValues" dxfId="116" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C143:C145">
-    <cfRule type="duplicateValues" dxfId="115" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="duplicateValues" dxfId="114" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148">
-    <cfRule type="duplicateValues" dxfId="113" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="D2:D231">
@@ -33574,7 +33702,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33610,7 +33738,7 @@
         <v>2767</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -33618,13 +33746,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2768</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -33660,13 +33788,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>2810</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>2809</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>3</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -33750,8 +33878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33759,7 +33887,8 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="31.25" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="5" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="65.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -33779,19 +33908,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2807</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>2806</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2805</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -33804,7 +33935,7 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
@@ -33819,10 +33950,8 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -33834,7 +33963,7 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
@@ -33849,7 +33978,7 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
@@ -33864,7 +33993,7 @@
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
@@ -33879,7 +34008,7 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
@@ -33894,7 +34023,7 @@
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
@@ -33909,7 +34038,7 @@
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
@@ -33924,18 +34053,13 @@
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D11">
-      <formula1>"暂停信号发送,恢复信号发送,滑动查找元素,清空编辑框中的文字,输入文本框中的文字"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34222,7 +34346,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34280,16 +34404,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2813</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>2812</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2780</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="F3" s="1">
         <v>3</v>
       </c>
     </row>
@@ -43295,144 +43421,144 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B219:B231 B59:B101 B110:B126 B167:B208 B210 B212:B217 B103:B108">
-    <cfRule type="duplicateValues" dxfId="112" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="duplicateValues" dxfId="110" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="duplicateValues" dxfId="108" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B166 B127:B134 B136:B139 B146 B149:B158">
-    <cfRule type="duplicateValues" dxfId="106" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B58">
-    <cfRule type="duplicateValues" dxfId="104" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="duplicateValues" dxfId="102" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B218">
-    <cfRule type="duplicateValues" dxfId="100" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209">
-    <cfRule type="duplicateValues" dxfId="98" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211">
-    <cfRule type="duplicateValues" dxfId="96" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="94" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B142">
-    <cfRule type="duplicateValues" dxfId="92" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B145">
-    <cfRule type="duplicateValues" dxfId="90" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B147">
-    <cfRule type="duplicateValues" dxfId="88" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="duplicateValues" dxfId="86" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C219:C231 C167:C208 C59:C101 C110:C126 C210 C212:C217 C103:C108">
-    <cfRule type="duplicateValues" dxfId="84" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C109">
-    <cfRule type="duplicateValues" dxfId="83" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159">
-    <cfRule type="duplicateValues" dxfId="82" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160:C166 C127:C134 C146 C136:C139 C149:C158">
-    <cfRule type="duplicateValues" dxfId="81" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C58">
-    <cfRule type="duplicateValues" dxfId="80" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="duplicateValues" dxfId="79" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C218">
-    <cfRule type="duplicateValues" dxfId="78" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C209">
-    <cfRule type="duplicateValues" dxfId="77" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C211">
-    <cfRule type="duplicateValues" dxfId="76" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="duplicateValues" dxfId="75" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C140:C142">
-    <cfRule type="duplicateValues" dxfId="74" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C143:C145">
-    <cfRule type="duplicateValues" dxfId="73" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="duplicateValues" dxfId="72" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148">
-    <cfRule type="duplicateValues" dxfId="71" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F219:F231 F167:F208 F59:F101 F110:F126 F210 F212:F217 F103:F108">
-    <cfRule type="duplicateValues" dxfId="70" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109">
-    <cfRule type="duplicateValues" dxfId="69" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F159">
-    <cfRule type="duplicateValues" dxfId="68" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F160:F166 F127:F134 F146 F136:F139 F149:F158">
-    <cfRule type="duplicateValues" dxfId="67" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F58">
-    <cfRule type="duplicateValues" dxfId="66" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135">
-    <cfRule type="duplicateValues" dxfId="65" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F218">
-    <cfRule type="duplicateValues" dxfId="64" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F209">
-    <cfRule type="duplicateValues" dxfId="63" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211">
-    <cfRule type="duplicateValues" dxfId="62" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102">
-    <cfRule type="duplicateValues" dxfId="61" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140:F142">
-    <cfRule type="duplicateValues" dxfId="60" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143:F145">
-    <cfRule type="duplicateValues" dxfId="59" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147">
-    <cfRule type="duplicateValues" dxfId="58" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D2:D231">

--- a/file/template3S1.xlsx
+++ b/file/template3S1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Can信号(CanAction)" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7188" uniqueCount="2825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7188" uniqueCount="2827">
   <si>
     <t>Id
 序号</t>
@@ -11240,10 +11240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行驶数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>相同</t>
   </si>
   <si>
@@ -11261,6 +11257,18 @@
     <t>element={"resourceId":"com.chinatsp.vehicle:id/navigation_view"}
 locator={"resourceId": "android:id/navigation_item_text"}
 text="DVR"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行驶数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC_续航里程800km</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>canaction=Power_ACC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16657,7 +16665,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16719,7 +16727,7 @@
         <v>2813</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -16739,11 +16747,11 @@
         <v>2784</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2819</v>
+        <v>2824</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -17179,8 +17187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M233"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17238,7 +17246,7 @@
         <v>752</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1972</v>
+        <v>2825</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>1972</v>
@@ -17253,7 +17261,7 @@
         <v>1232</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1348</v>
+        <v>2826</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>1351</v>
@@ -33953,8 +33961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33980,7 +33988,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
@@ -33997,13 +34005,13 @@
         <v>2801</v>
       </c>
       <c r="D2" s="23" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>2822</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>2823</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2824</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -34722,7 +34730,7 @@
   <dimension ref="A1:L231"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34842,7 +34850,7 @@
         <v>613</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J3" s="13">
         <v>99.01</v>
